--- a/NRI_STLF_Data/WeatherData/T_ahvaz/T_ahvaz94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_ahvaz/T_ahvaz94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_ahvaz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="6">
   <si>
     <t>Rain-Thunderstorm</t>
   </si>
@@ -39,12 +44,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -132,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,7 +172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F367" sqref="F367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -464,7 +469,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -544,7 +549,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -621,7 +626,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -698,7 +703,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -778,7 +783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -855,7 +860,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -932,7 +937,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1006,7 +1011,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1394,7 +1399,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1471,7 +1476,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1696,7 +1701,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2010,7 +2015,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2321,7 +2326,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2481,7 +2486,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2638,7 +2643,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2943,7 +2948,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3020,7 +3025,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3171,7 +3176,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3245,7 +3250,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3322,7 +3327,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3399,7 +3404,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3550,7 +3555,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3624,7 +3629,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3935,7 +3940,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4012,7 +4017,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4092,7 +4097,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4169,7 +4174,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4249,7 +4254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4403,7 +4408,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4477,7 +4482,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4708,7 +4713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4782,7 +4787,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4856,7 +4861,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4930,7 +4935,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5081,7 +5086,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5155,7 +5160,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5232,7 +5237,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5309,7 +5314,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5389,7 +5394,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5617,7 +5622,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5765,7 +5770,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5842,7 +5847,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -5916,7 +5921,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -5990,7 +5995,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6064,7 +6069,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6138,7 +6143,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6212,7 +6217,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6286,7 +6291,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6363,7 +6368,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6440,7 +6445,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6588,7 +6593,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6665,7 +6670,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6742,7 +6747,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6816,7 +6821,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -6890,7 +6895,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -6964,7 +6969,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7038,7 +7043,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7112,7 +7117,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7260,7 +7265,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7408,7 +7413,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7485,7 +7490,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7633,7 +7638,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7707,7 +7712,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7781,7 +7786,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -7858,7 +7863,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7932,7 +7937,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8006,7 +8011,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8080,7 +8085,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8231,7 +8236,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8305,7 +8310,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8379,7 +8384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8533,7 +8538,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8610,7 +8615,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8687,7 +8692,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8764,7 +8769,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -8841,7 +8846,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -8995,7 +9000,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9072,7 +9077,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9149,7 +9154,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9303,7 +9308,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9380,7 +9385,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9531,7 +9536,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9605,7 +9610,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9682,7 +9687,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9759,7 +9764,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -9836,7 +9841,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -9913,7 +9918,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -9987,7 +9992,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10064,7 +10069,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10141,7 +10146,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10218,7 +10223,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10295,7 +10300,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10369,7 +10374,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10443,7 +10448,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10520,7 +10525,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10597,7 +10602,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10671,7 +10676,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10748,7 +10753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -10825,7 +10830,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -10899,7 +10904,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -10976,7 +10981,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11053,7 +11058,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11127,7 +11132,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11201,7 +11206,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11275,7 +11280,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11349,7 +11354,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11423,7 +11428,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11497,7 +11502,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11571,7 +11576,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11645,7 +11650,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11719,7 +11724,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -11793,7 +11798,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -11867,7 +11872,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -11941,7 +11946,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12018,7 +12023,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12092,7 +12097,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12166,7 +12171,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12240,7 +12245,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12314,7 +12319,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12388,7 +12393,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12462,7 +12467,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12536,7 +12541,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12610,7 +12615,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12687,7 +12692,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -12764,7 +12769,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -12841,7 +12846,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -12918,7 +12923,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -12992,7 +12997,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13066,7 +13071,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13140,7 +13145,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13214,7 +13219,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13291,7 +13296,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13368,7 +13373,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13445,7 +13450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13525,7 +13530,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13605,7 +13610,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13682,7 +13687,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -13756,7 +13761,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -13830,7 +13835,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -13904,7 +13909,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -13978,7 +13983,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14052,7 +14057,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14126,7 +14131,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14200,7 +14205,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14274,7 +14279,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14348,7 +14353,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14422,7 +14427,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14496,7 +14501,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14570,7 +14575,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14644,7 +14649,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -14718,7 +14723,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -14792,7 +14797,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -14869,7 +14874,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -14943,7 +14948,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15017,7 +15022,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15094,7 +15099,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15168,7 +15173,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15242,7 +15247,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15316,7 +15321,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15390,7 +15395,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15464,7 +15469,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15538,7 +15543,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15615,7 +15620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -15692,7 +15697,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -15766,7 +15771,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -15840,7 +15845,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -15914,7 +15919,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -15988,7 +15993,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16062,7 +16067,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16139,7 +16144,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16213,7 +16218,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16290,7 +16295,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16370,7 +16375,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16447,7 +16452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16521,7 +16526,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16595,7 +16600,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -16672,7 +16677,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -16755,7 +16760,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -16829,7 +16834,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -16903,7 +16908,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -16977,7 +16982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17051,7 +17056,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17131,7 +17136,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17211,7 +17216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17291,7 +17296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17371,7 +17376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17451,7 +17456,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17528,7 +17533,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17602,7 +17607,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -17676,7 +17681,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -17753,7 +17758,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -17830,7 +17835,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -17910,7 +17915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -17990,7 +17995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18067,7 +18072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18144,7 +18149,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18221,7 +18226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18298,7 +18303,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18372,7 +18377,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18446,7 +18451,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18520,7 +18525,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18594,7 +18599,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -18668,7 +18673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -18745,7 +18750,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -18825,7 +18830,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -18905,7 +18910,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -18979,7 +18984,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19053,7 +19058,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19127,7 +19132,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19204,7 +19209,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19281,7 +19286,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19355,7 +19360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19429,7 +19434,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19506,7 +19511,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19580,7 +19585,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -19657,7 +19662,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -19731,7 +19736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -19808,7 +19813,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -19888,7 +19893,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -19968,7 +19973,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20048,7 +20053,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20128,7 +20133,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20208,7 +20213,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20282,7 +20287,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20356,7 +20361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20430,7 +20435,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20504,7 +20509,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20578,7 +20583,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -20655,7 +20660,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -20732,7 +20737,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -20812,7 +20817,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -20889,7 +20894,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -20963,7 +20968,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21037,7 +21042,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21114,7 +21119,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21194,7 +21199,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21271,7 +21276,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21348,7 +21353,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21422,7 +21427,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21502,7 +21507,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21582,7 +21587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -21659,7 +21664,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -21733,7 +21738,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -21807,7 +21812,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -21881,7 +21886,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -21955,7 +21960,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22035,7 +22040,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22115,7 +22120,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22195,7 +22200,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22275,7 +22280,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22352,7 +22357,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22426,7 +22431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22503,7 +22508,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22580,7 +22585,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -22654,7 +22659,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -22734,7 +22739,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -22814,7 +22819,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -22888,7 +22893,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -22962,7 +22967,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23039,7 +23044,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23113,7 +23118,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23190,7 +23195,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23270,7 +23275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23347,7 +23352,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23421,7 +23426,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23498,7 +23503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23575,7 +23580,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -23652,7 +23657,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -23726,7 +23731,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -23803,7 +23808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -23883,7 +23888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -23963,7 +23968,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24040,7 +24045,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24117,7 +24122,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24194,7 +24199,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24274,7 +24279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24348,7 +24353,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24422,7 +24427,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24496,7 +24501,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24570,7 +24575,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -24644,7 +24649,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -24721,7 +24726,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -24795,7 +24800,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -24869,7 +24874,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -24946,7 +24951,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25026,7 +25031,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25103,7 +25108,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25177,7 +25182,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25254,7 +25259,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25334,7 +25339,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25408,7 +25413,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25482,7 +25487,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25556,7 +25561,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -25633,7 +25638,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -25707,7 +25712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -25781,7 +25786,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -25855,7 +25860,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -25929,7 +25934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26003,7 +26008,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26077,7 +26082,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26154,7 +26159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26234,7 +26239,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26311,7 +26316,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26385,7 +26390,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26459,7 +26464,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26539,7 +26544,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -26619,7 +26624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -26696,7 +26701,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -26770,7 +26775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -26844,7 +26849,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -26918,7 +26923,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -26998,7 +27003,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27075,7 +27080,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27149,7 +27154,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27223,7 +27228,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27303,7 +27308,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27380,7 +27385,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27454,7 +27459,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27531,7 +27536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -27608,7 +27613,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -27685,7 +27690,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -27768,7 +27773,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -27848,7 +27853,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -27928,7 +27933,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28005,7 +28010,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28082,7 +28087,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28157,1429 +28162,6 @@
       </c>
       <c r="AA365">
         <v>322</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>29</v>
-      </c>
-      <c r="G366">
-        <v>19</v>
-      </c>
-      <c r="H366">
-        <v>9</v>
-      </c>
-      <c r="I366">
-        <v>9</v>
-      </c>
-      <c r="J366">
-        <v>1</v>
-      </c>
-      <c r="K366">
-        <v>-7</v>
-      </c>
-      <c r="L366">
-        <v>82</v>
-      </c>
-      <c r="M366">
-        <v>31</v>
-      </c>
-      <c r="N366">
-        <v>5</v>
-      </c>
-      <c r="O366">
-        <v>1019</v>
-      </c>
-      <c r="P366">
-        <v>1015</v>
-      </c>
-      <c r="Q366">
-        <v>1012</v>
-      </c>
-      <c r="R366">
-        <v>11</v>
-      </c>
-      <c r="S366">
-        <v>9</v>
-      </c>
-      <c r="T366">
-        <v>4</v>
-      </c>
-      <c r="U366">
-        <v>26</v>
-      </c>
-      <c r="V366">
-        <v>5</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>6</v>
-      </c>
-      <c r="Z366" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA366">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>29</v>
-      </c>
-      <c r="G367">
-        <v>23</v>
-      </c>
-      <c r="H367">
-        <v>18</v>
-      </c>
-      <c r="I367">
-        <v>16</v>
-      </c>
-      <c r="J367">
-        <v>5</v>
-      </c>
-      <c r="K367">
-        <v>-1</v>
-      </c>
-      <c r="L367">
-        <v>48</v>
-      </c>
-      <c r="M367">
-        <v>29</v>
-      </c>
-      <c r="N367">
-        <v>9</v>
-      </c>
-      <c r="O367">
-        <v>1013</v>
-      </c>
-      <c r="P367">
-        <v>1010</v>
-      </c>
-      <c r="Q367">
-        <v>1007</v>
-      </c>
-      <c r="R367">
-        <v>10</v>
-      </c>
-      <c r="S367">
-        <v>7</v>
-      </c>
-      <c r="T367">
-        <v>6</v>
-      </c>
-      <c r="U367">
-        <v>32</v>
-      </c>
-      <c r="V367">
-        <v>16</v>
-      </c>
-      <c r="W367">
-        <v>53</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>6</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA367">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>28</v>
-      </c>
-      <c r="G368">
-        <v>23</v>
-      </c>
-      <c r="H368">
-        <v>18</v>
-      </c>
-      <c r="I368">
-        <v>15</v>
-      </c>
-      <c r="J368">
-        <v>7</v>
-      </c>
-      <c r="K368">
-        <v>-1</v>
-      </c>
-      <c r="L368">
-        <v>83</v>
-      </c>
-      <c r="M368">
-        <v>37</v>
-      </c>
-      <c r="N368">
-        <v>9</v>
-      </c>
-      <c r="O368">
-        <v>1014</v>
-      </c>
-      <c r="P368">
-        <v>1011</v>
-      </c>
-      <c r="Q368">
-        <v>1009</v>
-      </c>
-      <c r="R368">
-        <v>10</v>
-      </c>
-      <c r="S368">
-        <v>8</v>
-      </c>
-      <c r="T368">
-        <v>3</v>
-      </c>
-      <c r="U368">
-        <v>26</v>
-      </c>
-      <c r="V368">
-        <v>13</v>
-      </c>
-      <c r="W368">
-        <v>35</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>4</v>
-      </c>
-      <c r="AA368">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>26</v>
-      </c>
-      <c r="G369">
-        <v>21</v>
-      </c>
-      <c r="H369">
-        <v>16</v>
-      </c>
-      <c r="I369">
-        <v>7</v>
-      </c>
-      <c r="J369">
-        <v>3</v>
-      </c>
-      <c r="K369">
-        <v>-5</v>
-      </c>
-      <c r="L369">
-        <v>46</v>
-      </c>
-      <c r="M369">
-        <v>29</v>
-      </c>
-      <c r="N369">
-        <v>13</v>
-      </c>
-      <c r="O369">
-        <v>1019</v>
-      </c>
-      <c r="P369">
-        <v>1016</v>
-      </c>
-      <c r="Q369">
-        <v>1014</v>
-      </c>
-      <c r="R369">
-        <v>10</v>
-      </c>
-      <c r="S369">
-        <v>10</v>
-      </c>
-      <c r="T369">
-        <v>10</v>
-      </c>
-      <c r="U369">
-        <v>19</v>
-      </c>
-      <c r="V369">
-        <v>11</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>1</v>
-      </c>
-      <c r="AA369">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>28</v>
-      </c>
-      <c r="G370">
-        <v>20</v>
-      </c>
-      <c r="H370">
-        <v>13</v>
-      </c>
-      <c r="I370">
-        <v>12</v>
-      </c>
-      <c r="J370">
-        <v>4</v>
-      </c>
-      <c r="K370">
-        <v>-1</v>
-      </c>
-      <c r="L370">
-        <v>63</v>
-      </c>
-      <c r="M370">
-        <v>34</v>
-      </c>
-      <c r="N370">
-        <v>11</v>
-      </c>
-      <c r="O370">
-        <v>1021</v>
-      </c>
-      <c r="P370">
-        <v>1019</v>
-      </c>
-      <c r="Q370">
-        <v>1017</v>
-      </c>
-      <c r="R370">
-        <v>10</v>
-      </c>
-      <c r="S370">
-        <v>10</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>14</v>
-      </c>
-      <c r="V370">
-        <v>6</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="AA370">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>32</v>
-      </c>
-      <c r="G371">
-        <v>22</v>
-      </c>
-      <c r="H371">
-        <v>12</v>
-      </c>
-      <c r="I371">
-        <v>11</v>
-      </c>
-      <c r="J371">
-        <v>6</v>
-      </c>
-      <c r="K371">
-        <v>0</v>
-      </c>
-      <c r="L371">
-        <v>82</v>
-      </c>
-      <c r="M371">
-        <v>37</v>
-      </c>
-      <c r="N371">
-        <v>13</v>
-      </c>
-      <c r="O371">
-        <v>1020</v>
-      </c>
-      <c r="P371">
-        <v>1018</v>
-      </c>
-      <c r="Q371">
-        <v>1016</v>
-      </c>
-      <c r="R371">
-        <v>10</v>
-      </c>
-      <c r="S371">
-        <v>8</v>
-      </c>
-      <c r="T371">
-        <v>6</v>
-      </c>
-      <c r="U371">
-        <v>8</v>
-      </c>
-      <c r="V371">
-        <v>2</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="AA371">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>28</v>
-      </c>
-      <c r="G372">
-        <v>22</v>
-      </c>
-      <c r="H372">
-        <v>16</v>
-      </c>
-      <c r="I372">
-        <v>10</v>
-      </c>
-      <c r="J372">
-        <v>3</v>
-      </c>
-      <c r="K372">
-        <v>-5</v>
-      </c>
-      <c r="L372">
-        <v>55</v>
-      </c>
-      <c r="M372">
-        <v>29</v>
-      </c>
-      <c r="N372">
-        <v>7</v>
-      </c>
-      <c r="O372">
-        <v>1019</v>
-      </c>
-      <c r="P372">
-        <v>1015</v>
-      </c>
-      <c r="Q372">
-        <v>1012</v>
-      </c>
-      <c r="R372">
-        <v>10</v>
-      </c>
-      <c r="S372">
-        <v>10</v>
-      </c>
-      <c r="T372">
-        <v>8</v>
-      </c>
-      <c r="U372">
-        <v>19</v>
-      </c>
-      <c r="V372">
-        <v>5</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>8</v>
-      </c>
-      <c r="AA372">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>26</v>
-      </c>
-      <c r="G373">
-        <v>21</v>
-      </c>
-      <c r="H373">
-        <v>16</v>
-      </c>
-      <c r="I373">
-        <v>14</v>
-      </c>
-      <c r="J373">
-        <v>8</v>
-      </c>
-      <c r="K373">
-        <v>-6</v>
-      </c>
-      <c r="L373">
-        <v>88</v>
-      </c>
-      <c r="M373">
-        <v>50</v>
-      </c>
-      <c r="N373">
-        <v>12</v>
-      </c>
-      <c r="O373">
-        <v>1014</v>
-      </c>
-      <c r="P373">
-        <v>1011</v>
-      </c>
-      <c r="Q373">
-        <v>1008</v>
-      </c>
-      <c r="R373">
-        <v>10</v>
-      </c>
-      <c r="S373">
-        <v>7</v>
-      </c>
-      <c r="T373">
-        <v>3</v>
-      </c>
-      <c r="U373">
-        <v>26</v>
-      </c>
-      <c r="V373">
-        <v>10</v>
-      </c>
-      <c r="W373">
-        <v>50</v>
-      </c>
-      <c r="X373">
-        <v>7.87</v>
-      </c>
-      <c r="Y373">
-        <v>8</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA373">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>23</v>
-      </c>
-      <c r="G374">
-        <v>19</v>
-      </c>
-      <c r="H374">
-        <v>15</v>
-      </c>
-      <c r="I374">
-        <v>19</v>
-      </c>
-      <c r="J374">
-        <v>17</v>
-      </c>
-      <c r="K374">
-        <v>12</v>
-      </c>
-      <c r="L374">
-        <v>88</v>
-      </c>
-      <c r="M374">
-        <v>77</v>
-      </c>
-      <c r="N374">
-        <v>50</v>
-      </c>
-      <c r="O374">
-        <v>1012</v>
-      </c>
-      <c r="P374">
-        <v>1009</v>
-      </c>
-      <c r="Q374">
-        <v>1006</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>5</v>
-      </c>
-      <c r="T374">
-        <v>1</v>
-      </c>
-      <c r="U374">
-        <v>19</v>
-      </c>
-      <c r="V374">
-        <v>5</v>
-      </c>
-      <c r="X374">
-        <v>3.05</v>
-      </c>
-      <c r="Y374">
-        <v>6</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA374">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>25</v>
-      </c>
-      <c r="G375">
-        <v>21</v>
-      </c>
-      <c r="H375">
-        <v>17</v>
-      </c>
-      <c r="I375">
-        <v>17</v>
-      </c>
-      <c r="J375">
-        <v>11</v>
-      </c>
-      <c r="K375">
-        <v>5</v>
-      </c>
-      <c r="L375">
-        <v>83</v>
-      </c>
-      <c r="M375">
-        <v>54</v>
-      </c>
-      <c r="N375">
-        <v>25</v>
-      </c>
-      <c r="O375">
-        <v>1015</v>
-      </c>
-      <c r="P375">
-        <v>1012</v>
-      </c>
-      <c r="Q375">
-        <v>1008</v>
-      </c>
-      <c r="R375">
-        <v>10</v>
-      </c>
-      <c r="S375">
-        <v>8</v>
-      </c>
-      <c r="T375">
-        <v>5</v>
-      </c>
-      <c r="U375">
-        <v>26</v>
-      </c>
-      <c r="V375">
-        <v>14</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>3</v>
-      </c>
-      <c r="AA375">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>26</v>
-      </c>
-      <c r="G376">
-        <v>19</v>
-      </c>
-      <c r="H376">
-        <v>13</v>
-      </c>
-      <c r="I376">
-        <v>9</v>
-      </c>
-      <c r="J376">
-        <v>6</v>
-      </c>
-      <c r="K376">
-        <v>0</v>
-      </c>
-      <c r="L376">
-        <v>72</v>
-      </c>
-      <c r="M376">
-        <v>40</v>
-      </c>
-      <c r="N376">
-        <v>12</v>
-      </c>
-      <c r="O376">
-        <v>1017</v>
-      </c>
-      <c r="P376">
-        <v>1015</v>
-      </c>
-      <c r="Q376">
-        <v>1013</v>
-      </c>
-      <c r="R376">
-        <v>10</v>
-      </c>
-      <c r="S376">
-        <v>10</v>
-      </c>
-      <c r="T376">
-        <v>10</v>
-      </c>
-      <c r="U376">
-        <v>19</v>
-      </c>
-      <c r="V376">
-        <v>11</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="AA376">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>26</v>
-      </c>
-      <c r="G377">
-        <v>19</v>
-      </c>
-      <c r="H377">
-        <v>13</v>
-      </c>
-      <c r="I377">
-        <v>8</v>
-      </c>
-      <c r="J377">
-        <v>4</v>
-      </c>
-      <c r="K377">
-        <v>-3</v>
-      </c>
-      <c r="L377">
-        <v>63</v>
-      </c>
-      <c r="M377">
-        <v>37</v>
-      </c>
-      <c r="N377">
-        <v>15</v>
-      </c>
-      <c r="O377">
-        <v>1015</v>
-      </c>
-      <c r="P377">
-        <v>1014</v>
-      </c>
-      <c r="Q377">
-        <v>1011</v>
-      </c>
-      <c r="R377">
-        <v>11</v>
-      </c>
-      <c r="S377">
-        <v>10</v>
-      </c>
-      <c r="T377">
-        <v>10</v>
-      </c>
-      <c r="U377">
-        <v>23</v>
-      </c>
-      <c r="V377">
-        <v>13</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>4</v>
-      </c>
-      <c r="AA377">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>25</v>
-      </c>
-      <c r="G378">
-        <v>19</v>
-      </c>
-      <c r="H378">
-        <v>12</v>
-      </c>
-      <c r="I378">
-        <v>7</v>
-      </c>
-      <c r="J378">
-        <v>3</v>
-      </c>
-      <c r="K378">
-        <v>-1</v>
-      </c>
-      <c r="L378">
-        <v>59</v>
-      </c>
-      <c r="M378">
-        <v>35</v>
-      </c>
-      <c r="N378">
-        <v>10</v>
-      </c>
-      <c r="O378">
-        <v>1016</v>
-      </c>
-      <c r="P378">
-        <v>1014</v>
-      </c>
-      <c r="Q378">
-        <v>1013</v>
-      </c>
-      <c r="R378">
-        <v>11</v>
-      </c>
-      <c r="S378">
-        <v>10</v>
-      </c>
-      <c r="T378">
-        <v>10</v>
-      </c>
-      <c r="U378">
-        <v>23</v>
-      </c>
-      <c r="V378">
-        <v>11</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>3</v>
-      </c>
-      <c r="AA378">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>26</v>
-      </c>
-      <c r="G379">
-        <v>18</v>
-      </c>
-      <c r="H379">
-        <v>10</v>
-      </c>
-      <c r="I379">
-        <v>8</v>
-      </c>
-      <c r="J379">
-        <v>5</v>
-      </c>
-      <c r="K379">
-        <v>-3</v>
-      </c>
-      <c r="L379">
-        <v>76</v>
-      </c>
-      <c r="M379">
-        <v>40</v>
-      </c>
-      <c r="N379">
-        <v>15</v>
-      </c>
-      <c r="O379">
-        <v>1019</v>
-      </c>
-      <c r="P379">
-        <v>1016</v>
-      </c>
-      <c r="Q379">
-        <v>1015</v>
-      </c>
-      <c r="R379">
-        <v>10</v>
-      </c>
-      <c r="S379">
-        <v>9</v>
-      </c>
-      <c r="T379">
-        <v>8</v>
-      </c>
-      <c r="U379">
-        <v>19</v>
-      </c>
-      <c r="V379">
-        <v>3</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="AA379">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>28</v>
-      </c>
-      <c r="G380">
-        <v>19</v>
-      </c>
-      <c r="H380">
-        <v>11</v>
-      </c>
-      <c r="I380">
-        <v>11</v>
-      </c>
-      <c r="J380">
-        <v>6</v>
-      </c>
-      <c r="K380">
-        <v>2</v>
-      </c>
-      <c r="L380">
-        <v>82</v>
-      </c>
-      <c r="M380">
-        <v>39</v>
-      </c>
-      <c r="N380">
-        <v>13</v>
-      </c>
-      <c r="O380">
-        <v>1019</v>
-      </c>
-      <c r="P380">
-        <v>1016</v>
-      </c>
-      <c r="Q380">
-        <v>1014</v>
-      </c>
-      <c r="R380">
-        <v>10</v>
-      </c>
-      <c r="S380">
-        <v>10</v>
-      </c>
-      <c r="T380">
-        <v>10</v>
-      </c>
-      <c r="U380">
-        <v>11</v>
-      </c>
-      <c r="V380">
-        <v>2</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="AA380">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>30</v>
-      </c>
-      <c r="G381">
-        <v>21</v>
-      </c>
-      <c r="H381">
-        <v>12</v>
-      </c>
-      <c r="I381">
-        <v>12</v>
-      </c>
-      <c r="J381">
-        <v>7</v>
-      </c>
-      <c r="K381">
-        <v>3</v>
-      </c>
-      <c r="L381">
-        <v>77</v>
-      </c>
-      <c r="M381">
-        <v>40</v>
-      </c>
-      <c r="N381">
-        <v>14</v>
-      </c>
-      <c r="O381">
-        <v>1017</v>
-      </c>
-      <c r="P381">
-        <v>1014</v>
-      </c>
-      <c r="Q381">
-        <v>1012</v>
-      </c>
-      <c r="R381">
-        <v>10</v>
-      </c>
-      <c r="S381">
-        <v>8</v>
-      </c>
-      <c r="T381">
-        <v>6</v>
-      </c>
-      <c r="U381">
-        <v>8</v>
-      </c>
-      <c r="V381">
-        <v>2</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="AA381">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>32</v>
-      </c>
-      <c r="G382">
-        <v>22</v>
-      </c>
-      <c r="H382">
-        <v>12</v>
-      </c>
-      <c r="I382">
-        <v>13</v>
-      </c>
-      <c r="J382">
-        <v>8</v>
-      </c>
-      <c r="K382">
-        <v>4</v>
-      </c>
-      <c r="L382">
-        <v>77</v>
-      </c>
-      <c r="M382">
-        <v>42</v>
-      </c>
-      <c r="N382">
-        <v>12</v>
-      </c>
-      <c r="O382">
-        <v>1013</v>
-      </c>
-      <c r="P382">
-        <v>1011</v>
-      </c>
-      <c r="Q382">
-        <v>1009</v>
-      </c>
-      <c r="R382">
-        <v>10</v>
-      </c>
-      <c r="S382">
-        <v>10</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>8</v>
-      </c>
-      <c r="V382">
-        <v>2</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="AA382">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>33</v>
-      </c>
-      <c r="G383">
-        <v>24</v>
-      </c>
-      <c r="H383">
-        <v>16</v>
-      </c>
-      <c r="I383">
-        <v>14</v>
-      </c>
-      <c r="J383">
-        <v>9</v>
-      </c>
-      <c r="K383">
-        <v>-2</v>
-      </c>
-      <c r="L383">
-        <v>77</v>
-      </c>
-      <c r="M383">
-        <v>42</v>
-      </c>
-      <c r="N383">
-        <v>11</v>
-      </c>
-      <c r="O383">
-        <v>1012</v>
-      </c>
-      <c r="P383">
-        <v>1010</v>
-      </c>
-      <c r="Q383">
-        <v>1009</v>
-      </c>
-      <c r="R383">
-        <v>10</v>
-      </c>
-      <c r="S383">
-        <v>7</v>
-      </c>
-      <c r="T383">
-        <v>5</v>
-      </c>
-      <c r="U383">
-        <v>11</v>
-      </c>
-      <c r="V383">
-        <v>3</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="AA383">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>33</v>
-      </c>
-      <c r="G384">
-        <v>24</v>
-      </c>
-      <c r="H384">
-        <v>16</v>
-      </c>
-      <c r="I384">
-        <v>18</v>
-      </c>
-      <c r="J384">
-        <v>12</v>
-      </c>
-      <c r="K384">
-        <v>7</v>
-      </c>
-      <c r="L384">
-        <v>68</v>
-      </c>
-      <c r="M384">
-        <v>42</v>
-      </c>
-      <c r="N384">
-        <v>15</v>
-      </c>
-      <c r="O384">
-        <v>1012</v>
-      </c>
-      <c r="P384">
-        <v>1010</v>
-      </c>
-      <c r="Q384">
-        <v>1008</v>
-      </c>
-      <c r="R384">
-        <v>10</v>
-      </c>
-      <c r="S384">
-        <v>8</v>
-      </c>
-      <c r="T384">
-        <v>6</v>
-      </c>
-      <c r="U384">
-        <v>11</v>
-      </c>
-      <c r="V384">
-        <v>3</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="AA384">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>33</v>
-      </c>
-      <c r="G385">
-        <v>26</v>
-      </c>
-      <c r="H385">
-        <v>18</v>
-      </c>
-      <c r="I385">
-        <v>15</v>
-      </c>
-      <c r="J385">
-        <v>12</v>
-      </c>
-      <c r="K385">
-        <v>7</v>
-      </c>
-      <c r="L385">
-        <v>73</v>
-      </c>
-      <c r="M385">
-        <v>38</v>
-      </c>
-      <c r="N385">
-        <v>18</v>
-      </c>
-      <c r="O385">
-        <v>1012</v>
-      </c>
-      <c r="P385">
-        <v>1010</v>
-      </c>
-      <c r="Q385">
-        <v>1007</v>
-      </c>
-      <c r="R385">
-        <v>10</v>
-      </c>
-      <c r="S385">
-        <v>9</v>
-      </c>
-      <c r="T385">
-        <v>6</v>
-      </c>
-      <c r="U385">
-        <v>19</v>
-      </c>
-      <c r="V385">
-        <v>6</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>1</v>
-      </c>
-      <c r="AA385">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>34</v>
-      </c>
-      <c r="G386">
-        <v>26</v>
-      </c>
-      <c r="H386">
-        <v>18</v>
-      </c>
-      <c r="I386">
-        <v>14</v>
-      </c>
-      <c r="J386">
-        <v>9</v>
-      </c>
-      <c r="K386">
-        <v>3</v>
-      </c>
-      <c r="L386">
-        <v>73</v>
-      </c>
-      <c r="M386">
-        <v>32</v>
-      </c>
-      <c r="N386">
-        <v>13</v>
-      </c>
-      <c r="O386">
-        <v>1011</v>
-      </c>
-      <c r="P386">
-        <v>1009</v>
-      </c>
-      <c r="Q386">
-        <v>1008</v>
-      </c>
-      <c r="R386">
-        <v>11</v>
-      </c>
-      <c r="S386">
-        <v>10</v>
-      </c>
-      <c r="T386">
-        <v>10</v>
-      </c>
-      <c r="U386">
-        <v>19</v>
-      </c>
-      <c r="V386">
-        <v>8</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="AA386">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>36</v>
-      </c>
-      <c r="G387">
-        <v>27</v>
-      </c>
-      <c r="H387">
-        <v>17</v>
-      </c>
-      <c r="I387">
-        <v>14</v>
-      </c>
-      <c r="J387">
-        <v>10</v>
-      </c>
-      <c r="K387">
-        <v>7</v>
-      </c>
-      <c r="L387">
-        <v>53</v>
-      </c>
-      <c r="M387">
-        <v>34</v>
-      </c>
-      <c r="N387">
-        <v>12</v>
-      </c>
-      <c r="O387">
-        <v>1013</v>
-      </c>
-      <c r="P387">
-        <v>1011</v>
-      </c>
-      <c r="Q387">
-        <v>1010</v>
-      </c>
-      <c r="R387">
-        <v>10</v>
-      </c>
-      <c r="S387">
-        <v>9</v>
-      </c>
-      <c r="T387">
-        <v>7</v>
-      </c>
-      <c r="U387">
-        <v>14</v>
-      </c>
-      <c r="V387">
-        <v>6</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>4</v>
-      </c>
-      <c r="AA387">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>30</v>
-      </c>
-      <c r="G388">
-        <v>26</v>
-      </c>
-      <c r="H388">
-        <v>22</v>
-      </c>
-      <c r="I388">
-        <v>14</v>
-      </c>
-      <c r="J388">
-        <v>10</v>
-      </c>
-      <c r="K388">
-        <v>6</v>
-      </c>
-      <c r="L388">
-        <v>50</v>
-      </c>
-      <c r="M388">
-        <v>35</v>
-      </c>
-      <c r="N388">
-        <v>17</v>
-      </c>
-      <c r="O388">
-        <v>1014</v>
-      </c>
-      <c r="P388">
-        <v>1011</v>
-      </c>
-      <c r="Q388">
-        <v>1008</v>
-      </c>
-      <c r="R388">
-        <v>10</v>
-      </c>
-      <c r="S388">
-        <v>7</v>
-      </c>
-      <c r="T388">
-        <v>5</v>
-      </c>
-      <c r="U388">
-        <v>23</v>
-      </c>
-      <c r="V388">
-        <v>6</v>
-      </c>
-      <c r="W388">
-        <v>32</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>6</v>
-      </c>
-      <c r="Z388" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA388">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -29593,7 +28175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29605,7 +28187,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
